--- a/PythonAPI/examples/HapticSharedControl/data/wheel_logs/spin_test_offset_forward.xlsx
+++ b/PythonAPI/examples/HapticSharedControl/data/wheel_logs/spin_test_offset_forward.xlsx
@@ -593,14 +593,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1740347029.815168</t>
+          <t>1740354398.3676171</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>24445</v>
+        <v>14304</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>5111866</v>
+        <v>826107248</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -702,14 +702,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1740347031.3422236</t>
+          <t>1740354399.8958678</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>-32768</v>
       </c>
       <c r="C3" t="n">
-        <v>27306</v>
+        <v>18204</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1667845468</v>
+        <v>826107248</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -811,14 +811,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1740347032.8672228</t>
+          <t>1740354401.39736</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-29492</v>
+        <v>-29486</v>
       </c>
       <c r="C4" t="n">
-        <v>28606</v>
+        <v>18204</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -920,14 +920,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1740347034.3931556</t>
+          <t>1740354402.9249723</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-26202</v>
+        <v>-26208</v>
       </c>
       <c r="C5" t="n">
-        <v>28606</v>
+        <v>18204</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -1029,14 +1029,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1740347035.9086206</t>
+          <t>1740354404.4507751</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22940</v>
+        <v>-22921</v>
       </c>
       <c r="C6" t="n">
-        <v>26006</v>
+        <v>18204</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>826107248</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1138,14 +1138,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1740347037.4221044</t>
+          <t>1740354405.9644544</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19657</v>
+        <v>-19651</v>
       </c>
       <c r="C7" t="n">
-        <v>26006</v>
+        <v>18204</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>826107248</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1247,14 +1247,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1740347038.9385588</t>
+          <t>1740354407.490239</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-16368</v>
+        <v>-16373</v>
       </c>
       <c r="C8" t="n">
-        <v>27826</v>
+        <v>18204</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>1006911048</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1356,14 +1356,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1740347040.4393816</t>
+          <t>1740354409.0191019</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-13097</v>
+        <v>-13091</v>
       </c>
       <c r="C9" t="n">
-        <v>29386</v>
+        <v>18204</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>826107248</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1465,14 +1465,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1740347041.9679039</t>
+          <t>1740354410.5450423</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-9816</v>
+        <v>-9820</v>
       </c>
       <c r="C10" t="n">
-        <v>26006</v>
+        <v>18204</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>826107248</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1574,14 +1574,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1740347043.4972713</t>
+          <t>1740354412.0577106</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6546</v>
+        <v>-6543</v>
       </c>
       <c r="C11" t="n">
-        <v>28086</v>
+        <v>18204</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>22</v>
+        <v>-3552307</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1683,14 +1683,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1740347045.0089114</t>
+          <t>1740354413.5837574</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3267</v>
+        <v>-3268</v>
       </c>
       <c r="C12" t="n">
-        <v>29126</v>
+        <v>18204</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>826107248</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1792,14 +1792,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1740347046.5328794</t>
+          <t>1740354415.1120312</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-12</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>29126</v>
+        <v>18204</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1901,14 +1901,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1740347048.0471659</t>
+          <t>1740354416.6400647</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3272</v>
+        <v>3265</v>
       </c>
       <c r="C14" t="n">
-        <v>26526</v>
+        <v>18204</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -2010,14 +2010,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1740347049.5740745</t>
+          <t>1740354418.1520014</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6541</v>
+        <v>6549</v>
       </c>
       <c r="C15" t="n">
-        <v>28606</v>
+        <v>18204</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-11174229</v>
+        <v>774978917</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -2119,14 +2119,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1740347051.0832474</t>
+          <t>1740354419.6769319</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9837</v>
+        <v>9834</v>
       </c>
       <c r="C16" t="n">
-        <v>29386</v>
+        <v>18204</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -2228,14 +2228,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1740347052.5929039</t>
+          <t>1740354421.2022264</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>13109</v>
       </c>
       <c r="C17" t="n">
-        <v>29386</v>
+        <v>18204</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2337,14 +2337,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1740347054.1189728</t>
+          <t>1740354422.728369</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16391</v>
+        <v>16385</v>
       </c>
       <c r="C18" t="n">
-        <v>27566</v>
+        <v>18204</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>774978917</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2446,14 +2446,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1740347055.641106</t>
+          <t>1740354424.2424333</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19667</v>
+        <v>19662</v>
       </c>
       <c r="C19" t="n">
-        <v>26526</v>
+        <v>18204</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-1169798176</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2555,14 +2555,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1740347057.1563697</t>
+          <t>1740354425.770709</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>22950</v>
+        <v>22946</v>
       </c>
       <c r="C20" t="n">
-        <v>27566</v>
+        <v>18204</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2664,14 +2664,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1740347058.6821904</t>
+          <t>1740354427.2959504</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>26207</v>
+        <v>26208</v>
       </c>
       <c r="C21" t="n">
-        <v>27826</v>
+        <v>18204</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>774978917</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2773,14 +2773,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1740347060.2119837</t>
+          <t>1740354428.80618</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>29479</v>
       </c>
       <c r="C22" t="n">
-        <v>28086</v>
+        <v>18204</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2882,14 +2882,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1740347066.7399883</t>
+          <t>1740354435.321126</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>32767</v>
       </c>
       <c r="C23" t="n">
-        <v>28086</v>
+        <v>18204</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>774978917</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2991,14 +2991,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1740347068.2505295</t>
+          <t>1740354436.8502724</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>32767</v>
       </c>
       <c r="C24" t="n">
-        <v>28086</v>
+        <v>18204</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>774978917</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -3100,14 +3100,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1740347069.7757092</t>
+          <t>1740354438.375087</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>29498</v>
       </c>
       <c r="C25" t="n">
-        <v>26526</v>
+        <v>18204</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>774978917</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -3209,14 +3209,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1740347071.3041291</t>
+          <t>1740354439.8993778</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>26208</v>
+        <v>26221</v>
       </c>
       <c r="C26" t="n">
-        <v>26526</v>
+        <v>18204</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -3318,14 +3318,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1740347072.8297384</t>
+          <t>1740354441.4151561</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>22930</v>
       </c>
       <c r="C27" t="n">
-        <v>26526</v>
+        <v>18204</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -3427,14 +3427,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1740347074.3586226</t>
+          <t>1740354442.9380698</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19656</v>
+        <v>19667</v>
       </c>
       <c r="C28" t="n">
-        <v>28606</v>
+        <v>18204</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -3536,14 +3536,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1740347075.8709478</t>
+          <t>1740354444.4523172</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>16391</v>
+        <v>16379</v>
       </c>
       <c r="C29" t="n">
-        <v>28606</v>
+        <v>18204</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>774978917</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -3645,14 +3645,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1740347077.3730304</t>
+          <t>1740354445.9803233</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>13103</v>
+        <v>13102</v>
       </c>
       <c r="C30" t="n">
-        <v>25746</v>
+        <v>18204</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>774978917</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -3754,14 +3754,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1740347078.9021196</t>
+          <t>1740354447.503456</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>9825</v>
       </c>
       <c r="C31" t="n">
-        <v>27826</v>
+        <v>18204</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3863,14 +3863,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1740347080.4171414</t>
+          <t>1740354449.0171297</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6542</v>
+        <v>6544</v>
       </c>
       <c r="C32" t="n">
-        <v>27826</v>
+        <v>18204</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3972,14 +3972,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1740347081.9311583</t>
+          <t>1740354450.5203884</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3278</v>
+        <v>3274</v>
       </c>
       <c r="C33" t="n">
-        <v>27826</v>
+        <v>18204</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -4081,14 +4081,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1740347083.4478993</t>
+          <t>1740354452.047008</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="C34" t="n">
-        <v>27826</v>
+        <v>18204</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -4190,14 +4190,14 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1740347084.9774754</t>
+          <t>1740354453.571805</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-3287</v>
+        <v>-3289</v>
       </c>
       <c r="C35" t="n">
-        <v>27826</v>
+        <v>18204</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -4299,14 +4299,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1740347086.5062594</t>
+          <t>1740354455.0884554</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-6563</v>
+        <v>-6565</v>
       </c>
       <c r="C36" t="n">
-        <v>27826</v>
+        <v>18204</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>774978917</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -4408,14 +4408,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1740347088.0339901</t>
+          <t>1740354456.6029074</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-9842</v>
+        <v>-9839</v>
       </c>
       <c r="C37" t="n">
-        <v>28086</v>
+        <v>18204</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -4474,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>826107248</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -4517,14 +4517,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1740347089.549625</t>
+          <t>1740354458.1132674</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-13122</v>
+        <v>-13119</v>
       </c>
       <c r="C38" t="n">
-        <v>28086</v>
+        <v>18204</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -4626,14 +4626,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1740347091.0740929</t>
+          <t>1740354459.6361926</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-16393</v>
+        <v>-16394</v>
       </c>
       <c r="C39" t="n">
-        <v>28086</v>
+        <v>18204</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -4735,14 +4735,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1740347092.6046352</t>
+          <t>1740354461.150695</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-19669</v>
+        <v>-19664</v>
       </c>
       <c r="C40" t="n">
-        <v>28086</v>
+        <v>18204</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>826107248</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -4844,14 +4844,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1740347094.117014</t>
+          <t>1740354462.672575</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>-22946</v>
       </c>
       <c r="C41" t="n">
-        <v>28086</v>
+        <v>18204</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -4953,14 +4953,14 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1740347095.6268435</t>
+          <t>1740354464.1917808</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>-26218</v>
       </c>
       <c r="C42" t="n">
-        <v>28086</v>
+        <v>18204</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -5062,14 +5062,14 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1740347097.1482022</t>
+          <t>1740354465.7203276</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>-29493</v>
       </c>
       <c r="C43" t="n">
-        <v>28086</v>
+        <v>18204</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>

--- a/PythonAPI/examples/HapticSharedControl/data/wheel_logs/spin_test_offset_forward.xlsx
+++ b/PythonAPI/examples/HapticSharedControl/data/wheel_logs/spin_test_offset_forward.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE43"/>
+  <dimension ref="A1:AE85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,14 +593,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1740354398.3676171</t>
+          <t>1740426184.2076168</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>-19572</v>
       </c>
       <c r="C2" t="n">
-        <v>14304</v>
+        <v>32767</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -702,14 +702,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1740354399.8958678</t>
+          <t>1740426185.0195036</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-32768</v>
+        <v>-29413</v>
       </c>
       <c r="C3" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -811,14 +811,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1740354401.39736</t>
+          <t>1740426185.8307214</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-29486</v>
+        <v>-26222</v>
       </c>
       <c r="C4" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-3552307</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -920,14 +920,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1740354402.9249723</t>
+          <t>1740426186.6394718</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-26208</v>
+        <v>-22939</v>
       </c>
       <c r="C5" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>-3421237</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1029,14 +1029,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1740354404.4507751</t>
+          <t>1740426187.4440007</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22921</v>
+        <v>-19649</v>
       </c>
       <c r="C6" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1138,14 +1138,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1740354405.9644544</t>
+          <t>1740426188.2547271</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19651</v>
+        <v>-16368</v>
       </c>
       <c r="C7" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1247,14 +1247,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1740354407.490239</t>
+          <t>1740426189.060585</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-16373</v>
+        <v>-13096</v>
       </c>
       <c r="C8" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1006911048</v>
+        <v>-1684002248</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1356,14 +1356,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1740354409.0191019</t>
+          <t>1740426189.868588</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-13091</v>
+        <v>-9822</v>
       </c>
       <c r="C9" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>826107248</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1465,14 +1465,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1740354410.5450423</t>
+          <t>1740426190.6760921</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-9820</v>
+        <v>-6558</v>
       </c>
       <c r="C10" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>826107248</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1574,14 +1574,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1740354412.0577106</t>
+          <t>1740426191.4877613</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6543</v>
+        <v>-3283</v>
       </c>
       <c r="C11" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-3552307</v>
+        <v>3670115</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1683,14 +1683,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1740354413.5837574</t>
+          <t>1740426192.299071</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3268</v>
+        <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>826107248</v>
+        <v>774978917</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1792,14 +1792,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1740354415.1120312</t>
+          <t>1740426193.106993</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3291</v>
       </c>
       <c r="C13" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1901,14 +1901,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1740354416.6400647</t>
+          <t>1740426193.9215803</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3265</v>
+        <v>6561</v>
       </c>
       <c r="C14" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1</v>
+        <v>774978917</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -2010,14 +2010,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1740354418.1520014</t>
+          <t>1740426194.734649</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6549</v>
+        <v>9824</v>
       </c>
       <c r="C15" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>774978917</v>
+        <v>6422627</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -2119,14 +2119,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1740354419.6769319</t>
+          <t>1740426195.543136</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9834</v>
+        <v>13097</v>
       </c>
       <c r="C16" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -2228,14 +2228,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1740354421.2022264</t>
+          <t>1740426196.3578858</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13109</v>
+        <v>16387</v>
       </c>
       <c r="C17" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>774978917</v>
+        <v>2490438</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -2337,14 +2337,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1740354422.728369</t>
+          <t>1740426197.1676064</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16385</v>
+        <v>19654</v>
       </c>
       <c r="C18" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>2293810</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2446,14 +2446,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1740354424.2424333</t>
+          <t>1740426197.97921</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19662</v>
+        <v>22938</v>
       </c>
       <c r="C19" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>-1169798176</v>
+        <v>2949222</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2555,14 +2555,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1740354425.770709</t>
+          <t>1740426198.791236</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>22946</v>
+        <v>26226</v>
       </c>
       <c r="C20" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2664,14 +2664,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1740354427.2959504</t>
+          <t>1740426199.6049633</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>26208</v>
+        <v>29499</v>
       </c>
       <c r="C21" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2773,14 +2773,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1740354428.80618</t>
+          <t>1740426200.4131033</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29479</v>
+        <v>32767</v>
       </c>
       <c r="C22" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2882,14 +2882,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1740354435.321126</t>
+          <t>1740426207.243586</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>32767</v>
       </c>
       <c r="C23" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>774978917</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2991,14 +2991,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1740354436.8502724</t>
+          <t>1740426208.0570695</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>32767</v>
+        <v>29497</v>
       </c>
       <c r="C24" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>774978917</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -3100,14 +3100,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1740354438.375087</t>
+          <t>1740426208.8666322</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29498</v>
+        <v>26195</v>
       </c>
       <c r="C25" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -3209,14 +3209,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1740354439.8993778</t>
+          <t>1740426209.6808348</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>26221</v>
+        <v>22920</v>
       </c>
       <c r="C26" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>774978917</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -3318,14 +3318,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1740354441.4151561</t>
+          <t>1740426210.4910154</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>22930</v>
+        <v>19656</v>
       </c>
       <c r="C27" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -3384,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>774978917</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -3427,14 +3427,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1740354442.9380698</t>
+          <t>1740426211.2998598</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19667</v>
+        <v>16391</v>
       </c>
       <c r="C28" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>774978917</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -3536,14 +3536,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1740354444.4523172</t>
+          <t>1740426212.1079917</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>16379</v>
+        <v>13110</v>
       </c>
       <c r="C29" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>774978917</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -3645,14 +3645,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1740354445.9803233</t>
+          <t>1740426212.9186885</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>13102</v>
+        <v>9824</v>
       </c>
       <c r="C30" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -3754,14 +3754,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1740354447.503456</t>
+          <t>1740426213.7281244</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9825</v>
+        <v>6549</v>
       </c>
       <c r="C31" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>774978917</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3863,14 +3863,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1740354449.0171297</t>
+          <t>1740426214.539019</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6544</v>
+        <v>3261</v>
       </c>
       <c r="C32" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3929,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>774978917</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3972,14 +3972,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1740354450.5203884</t>
+          <t>1740426215.3483782</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3274</v>
+        <v>-11</v>
       </c>
       <c r="C33" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>774978917</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -4081,14 +4081,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1740354452.047008</t>
+          <t>1740426216.1580772</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-7</v>
+        <v>-3280</v>
       </c>
       <c r="C34" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>826107248</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -4190,14 +4190,14 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1740354453.571805</t>
+          <t>1740426216.9648724</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-3289</v>
+        <v>-6563</v>
       </c>
       <c r="C35" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -4299,14 +4299,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1740354455.0884554</t>
+          <t>1740426217.7722988</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-6565</v>
+        <v>-9835</v>
       </c>
       <c r="C36" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -4408,14 +4408,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1740354456.6029074</t>
+          <t>1740426218.5789828</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-9839</v>
+        <v>-13117</v>
       </c>
       <c r="C37" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -4474,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>826107248</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -4517,14 +4517,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1740354458.1132674</t>
+          <t>1740426219.3908627</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-13119</v>
+        <v>-16392</v>
       </c>
       <c r="C38" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -4626,14 +4626,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1740354459.6361926</t>
+          <t>1740426220.197728</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-16394</v>
+        <v>-19657</v>
       </c>
       <c r="C39" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -4735,14 +4735,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1740354461.150695</t>
+          <t>1740426221.007005</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-19664</v>
+        <v>-22940</v>
       </c>
       <c r="C40" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -4844,14 +4844,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1740354462.672575</t>
+          <t>1740426221.8186464</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-22946</v>
+        <v>-26217</v>
       </c>
       <c r="C41" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>826107248</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -4953,14 +4953,14 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1740354464.1917808</t>
+          <t>1740426222.630251</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-26218</v>
+        <v>-29487</v>
       </c>
       <c r="C42" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>826107248</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -5062,14 +5062,14 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1740354465.7203276</t>
+          <t>1740426223.4409828</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-29493</v>
+        <v>-32768</v>
       </c>
       <c r="C43" t="n">
-        <v>18204</v>
+        <v>32767</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -5163,6 +5163,4584 @@
         <v>0</v>
       </c>
       <c r="AE43" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1740426230.2683966</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>-32768</v>
+      </c>
+      <c r="C44" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1740426231.078207</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>-29498</v>
+      </c>
+      <c r="C45" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1740426231.8938973</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>-26216</v>
+      </c>
+      <c r="C46" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1740426232.70194</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>-22926</v>
+      </c>
+      <c r="C47" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1740426233.5109277</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>-19645</v>
+      </c>
+      <c r="C48" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1740426234.3224564</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>-16372</v>
+      </c>
+      <c r="C49" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>826107248</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1740426235.1268344</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-13097</v>
+      </c>
+      <c r="C50" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1740426235.9373286</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>-9820</v>
+      </c>
+      <c r="C51" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1740426236.7517664</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>-6558</v>
+      </c>
+      <c r="C52" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1740426237.5578887</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>-3288</v>
+      </c>
+      <c r="C53" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1740426238.3657815</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>10</v>
+      </c>
+      <c r="C54" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>774978917</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1740426239.1724217</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>3291</v>
+      </c>
+      <c r="C55" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>774978917</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1740426239.9819336</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>6556</v>
+      </c>
+      <c r="C56" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>774978917</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1740426240.7917879</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>9820</v>
+      </c>
+      <c r="C57" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1740426241.5958738</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>13095</v>
+      </c>
+      <c r="C58" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1740426242.4021165</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>16380</v>
+      </c>
+      <c r="C59" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>774978917</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1740426243.2130332</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>19667</v>
+      </c>
+      <c r="C60" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1740426244.0203388</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>22938</v>
+      </c>
+      <c r="C61" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>774978917</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1740426244.8311622</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>26223</v>
+      </c>
+      <c r="C62" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>774978917</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>1740426245.6444125</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>29503</v>
+      </c>
+      <c r="C63" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>774978917</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1740426246.456452</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>32767</v>
+      </c>
+      <c r="C64" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1740426253.2726765</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>32767</v>
+      </c>
+      <c r="C65" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1740426254.082913</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>29492</v>
+      </c>
+      <c r="C66" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1740426254.8955832</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>26196</v>
+      </c>
+      <c r="C67" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1740426255.7024932</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>22920</v>
+      </c>
+      <c r="C68" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>1740426256.5104184</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>19656</v>
+      </c>
+      <c r="C69" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>1740426257.3215473</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>16393</v>
+      </c>
+      <c r="C70" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>774978917</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>1740426258.1296346</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>13109</v>
+      </c>
+      <c r="C71" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>1740426258.9376507</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>9833</v>
+      </c>
+      <c r="C72" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>774978917</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE72" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>1740426259.7487662</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>6555</v>
+      </c>
+      <c r="C73" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>1740426260.558334</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>3274</v>
+      </c>
+      <c r="C74" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE74" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>1740426261.3709033</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>-11</v>
+      </c>
+      <c r="C75" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1740426262.1830714</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>-3276</v>
+      </c>
+      <c r="C76" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>826107248</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE76" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>1740426262.9888945</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>-6557</v>
+      </c>
+      <c r="C77" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>826107248</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE77" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1740426263.8021874</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>-9841</v>
+      </c>
+      <c r="C78" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE78" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1740426264.6186364</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>-13119</v>
+      </c>
+      <c r="C79" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE79" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1740426265.430342</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>-16388</v>
+      </c>
+      <c r="C80" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>826107248</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE80" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1740426266.2429147</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>-19664</v>
+      </c>
+      <c r="C81" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="n">
+        <v>0</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE81" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>1740426267.0541413</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>-22941</v>
+      </c>
+      <c r="C82" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="n">
+        <v>0</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE82" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1740426267.864192</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>-26211</v>
+      </c>
+      <c r="C83" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0</v>
+      </c>
+      <c r="T83" t="n">
+        <v>826107248</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE83" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>1740426268.675234</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>-29487</v>
+      </c>
+      <c r="C84" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="n">
+        <v>0</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE84" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>1740426269.490492</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>-32768</v>
+      </c>
+      <c r="C85" t="n">
+        <v>32767</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>32767</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>[32767, 0]</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>[4294967295, 4294967295, 4294967295, 4294967295]</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>826107248</v>
+      </c>
+      <c r="U85" t="n">
+        <v>0</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="n">
+        <v>0</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>[0, 0]</t>
+        </is>
+      </c>
+      <c r="Y85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE85" t="inlineStr">
         <is>
           <t>[0, 0]</t>
         </is>
